--- a/bb.xlsx
+++ b/bb.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="253" uniqueCount="156">
   <si>
     <t>نام</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>محمدی فارسانی</t>
-  </si>
-  <si>
-    <t>دانشگاه رازی</t>
   </si>
   <si>
     <t>ریاضی</t>
@@ -463,9 +460,6 @@
     </r>
   </si>
   <si>
-    <t>مقاله شون مشخص نیست</t>
-  </si>
-  <si>
     <t>مهرآسا</t>
   </si>
   <si>
@@ -545,6 +539,12 @@
   </si>
   <si>
     <t>حذف</t>
+  </si>
+  <si>
+    <t>کاشان</t>
+  </si>
+  <si>
+    <t>The properties of finite lampliter groups</t>
   </si>
 </sst>
 </file>
@@ -1147,8 +1147,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="G41" sqref="G41"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G34" sqref="G34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1200,10 +1200,10 @@
         <v>0</v>
       </c>
       <c r="G2" s="22" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="H2" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -1226,10 +1226,10 @@
         <v>5500000</v>
       </c>
       <c r="G3" s="17" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="H3" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -1252,10 +1252,10 @@
         <v>5500000</v>
       </c>
       <c r="G4" s="16" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H4" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -1278,10 +1278,10 @@
         <v>7500000</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="H5" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:10" ht="16.5">
@@ -1304,10 +1304,10 @@
         <v>7500000</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H6" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -1330,10 +1330,10 @@
         <v>5500000</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="H7" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -1356,10 +1356,10 @@
         <v>5500000</v>
       </c>
       <c r="G8" s="19" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="H8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -1382,10 +1382,10 @@
         <v>4000000</v>
       </c>
       <c r="G9" s="20" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="H9" s="6" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -1408,10 +1408,10 @@
         <v>12500000</v>
       </c>
       <c r="G10" s="15" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="H10" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -1434,10 +1434,10 @@
         <v>5500000</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H11" s="6" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -1460,10 +1460,10 @@
         <v>4000000</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -1486,7 +1486,7 @@
         <v>4000000</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="H13" s="36" t="s">
         <v>133</v>
@@ -1512,7 +1512,7 @@
         <v>4000000</v>
       </c>
       <c r="G14" s="18" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="H14" s="36" t="s">
         <v>133</v>
@@ -1520,10 +1520,10 @@
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C15" s="2" t="s">
         <v>8</v>
@@ -1532,24 +1532,24 @@
         <v>17</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F15" s="1">
         <v>3000000</v>
       </c>
       <c r="G15" s="18" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H15" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>8</v>
@@ -1558,26 +1558,26 @@
         <v>17</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F16" s="1">
         <v>3000000</v>
       </c>
       <c r="G16" s="18" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H16" s="37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>77</v>
@@ -1586,16 +1586,16 @@
         <v>17</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F17" s="1">
         <v>5500000</v>
       </c>
       <c r="G17" s="19" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H17" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -1606,78 +1606,78 @@
         <v>39</v>
       </c>
       <c r="C18" s="28" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D18" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="28" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F18" s="29" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G18" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="H18" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="28" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B19" s="28" t="s">
+        <v>139</v>
+      </c>
+      <c r="C19" s="28" t="s">
         <v>141</v>
-      </c>
-      <c r="C19" s="28" t="s">
-        <v>143</v>
       </c>
       <c r="D19" s="6" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="33" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F19" s="33">
         <v>5500000</v>
       </c>
       <c r="G19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="H19" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I19" s="27"/>
       <c r="J19" s="2"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="33" t="s">
+        <v>145</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>146</v>
+      </c>
+      <c r="C20" s="33" t="s">
         <v>147</v>
       </c>
-      <c r="B20" s="33" t="s">
+      <c r="D20" s="33" t="s">
         <v>148</v>
       </c>
-      <c r="C20" s="33" t="s">
+      <c r="E20" s="33" t="s">
         <v>149</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>150</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>151</v>
       </c>
       <c r="F20" s="33">
         <v>4000000</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="H20" s="33" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="21" spans="1:10" ht="16.5">
@@ -1698,10 +1698,10 @@
         <v>7000000</v>
       </c>
       <c r="G21" s="23" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="H21" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -1726,10 +1726,10 @@
         <v>9100000</v>
       </c>
       <c r="G22" s="18" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="H22" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -1754,10 +1754,10 @@
         <v>9100000</v>
       </c>
       <c r="G23" s="19" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="H23" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -1780,10 +1780,10 @@
         <v>0</v>
       </c>
       <c r="G24" s="15" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="H24" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -1806,10 +1806,10 @@
         <v>0</v>
       </c>
       <c r="G25" s="15" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="H25" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I25" s="2"/>
       <c r="J25" s="2"/>
@@ -1832,10 +1832,10 @@
         <v>5500000</v>
       </c>
       <c r="G26" s="16" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H26" s="26" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I26" s="2"/>
       <c r="J26" s="2"/>
@@ -1845,7 +1845,7 @@
         <v>65</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C27" s="1" t="s">
         <v>8</v>
@@ -1854,16 +1854,16 @@
         <v>64</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F27" s="1">
         <v>5500000</v>
       </c>
       <c r="G27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="H27" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I27" s="2"/>
       <c r="J27" s="2"/>
@@ -1888,10 +1888,10 @@
         <v>4000000</v>
       </c>
       <c r="G28" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="H28" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
@@ -1916,10 +1916,10 @@
         <v>4000000</v>
       </c>
       <c r="G29" s="15" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H29" s="37" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="I29" s="2"/>
       <c r="J29" s="2"/>
@@ -1944,9 +1944,11 @@
         <v>3000000</v>
       </c>
       <c r="G30" s="24" t="s">
-        <v>127</v>
-      </c>
-      <c r="H30" s="2"/>
+        <v>126</v>
+      </c>
+      <c r="H30" s="38" t="s">
+        <v>131</v>
+      </c>
       <c r="I30" s="2"/>
       <c r="J30" s="2"/>
     </row>
@@ -1970,10 +1972,10 @@
         <v>5500000</v>
       </c>
       <c r="G31" s="16" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H31" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I31" s="2"/>
       <c r="J31" s="2"/>
@@ -1998,10 +2000,10 @@
         <v>10800000</v>
       </c>
       <c r="G32" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="H32" s="38" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I32" s="2"/>
       <c r="J32" s="2"/>
@@ -2019,22 +2021,22 @@
         <v>80</v>
       </c>
       <c r="C34" s="5" t="s">
+        <v>154</v>
+      </c>
+      <c r="D34" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D34" s="5" t="s">
+      <c r="E34" s="5" t="s">
         <v>82</v>
-      </c>
-      <c r="E34" s="5" t="s">
-        <v>83</v>
       </c>
       <c r="F34" s="5">
         <v>5500000</v>
       </c>
       <c r="G34" s="25" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="H34" s="35" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I34" s="2"/>
       <c r="J34" s="2"/>
@@ -2046,34 +2048,34 @@
     </row>
     <row r="36" spans="1:10">
       <c r="A36" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="B36" s="5" t="s">
         <v>84</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="C36" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C36" s="5" t="s">
+      <c r="D36" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="D36" s="5" t="s">
+      <c r="E36" s="5" t="s">
         <v>87</v>
-      </c>
-      <c r="E36" s="5" t="s">
-        <v>88</v>
       </c>
       <c r="F36" s="5">
         <v>4000000</v>
       </c>
       <c r="G36" s="31" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="H36" s="2"/>
     </row>
     <row r="37" spans="1:10">
       <c r="A37" s="32" t="s">
+        <v>90</v>
+      </c>
+      <c r="B37" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="B37" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="C37" s="1" t="s">
         <v>77</v>
@@ -2082,16 +2084,16 @@
         <v>78</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F37" s="1">
         <v>5500000</v>
       </c>
       <c r="G37" s="30" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H37" s="10" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="38" spans="1:10">
@@ -2106,54 +2108,54 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E39" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F39" s="1">
         <v>7500000</v>
       </c>
       <c r="G39" s="13" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="H39" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:10">
       <c r="A40" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F40" s="1">
         <v>7500000</v>
       </c>
       <c r="G40" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="H40" s="37" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
   </sheetData>
